--- a/dist/Callsheet.xlsx
+++ b/dist/Callsheet.xlsx
@@ -488,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
@@ -525,12 +525,12 @@
     <row r="4" ht="39.6" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Date: 12/03/2024</t>
+          <t>Date: 12/13/2024</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Time: 03:00:21 PM</t>
+          <t>Time: 11:06:00 AM</t>
         </is>
       </c>
     </row>
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Late DR</t>
+          <t xml:space="preserve"> DR</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -719,19 +719,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hammond</t>
+          <t>Schroeder</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Karis</t>
+          <t>Bryce</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -748,19 +748,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Schroeder</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bryce</t>
+          <t>Huy</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -777,19 +777,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nguyen</t>
+          <t>Nityandal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Huy</t>
+          <t>Ananth</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -798,27 +798,31 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DR</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t xml:space="preserve"> Late DR</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3+ lunch shifts excuse WE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nityandal</t>
+          <t>Tahmasebi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ananth</t>
+          <t>Ali</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -830,28 +834,24 @@
           <t xml:space="preserve"> Late DR</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>3+ lunch shifts excuse WE</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tahmasebi</t>
+          <t>Struck</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ali</t>
+          <t>Connor</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Late DR</t>
+          <t xml:space="preserve"> DR</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -926,19 +926,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shakil</t>
+          <t>Sharma</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Shamim</t>
+          <t>Anusha</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Late</t>
+          <t xml:space="preserve"> DR</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -955,19 +955,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Stroud</t>
+          <t>Shakil</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sean</t>
+          <t>Shamim</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Late Under Hours DR</t>
+          <t xml:space="preserve"> Late</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -984,19 +984,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Najam</t>
+          <t>Stroud</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rao Ibtisam (Rao)</t>
+          <t>Sean</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DR</t>
+          <t xml:space="preserve"> Late Under Hours DR</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1013,19 +1013,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Seemakurthi</t>
+          <t>Najam</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Prudvik</t>
+          <t>Rao Ibtisam (Rao)</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Late</t>
+          <t xml:space="preserve"> DR</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1042,19 +1042,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Harris</t>
+          <t>Seemakurthi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Prudvik</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1071,12 +1071,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rp</t>
+          <t>Harris</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mohinth</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DR</t>
+          <t xml:space="preserve"> Late</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1100,19 +1100,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ulses</t>
+          <t>Rp</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Trey</t>
+          <t>Mohinth</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1121,27 +1121,31 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Under Hours</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t xml:space="preserve"> Late DR</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3+ lunch shifts excuse WE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Durbhakula</t>
+          <t>Ulses</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ramamurthy</t>
+          <t>Trey</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1150,7 +1154,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Late DR</t>
+          <t xml:space="preserve"> Under Hours</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1158,19 +1162,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dokuri</t>
+          <t>Durbhakula</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Swadesh Reddy</t>
+          <t>Ramamurthy</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1179,7 +1183,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DR</t>
+          <t xml:space="preserve"> Late DR</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1187,19 +1191,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Shail</t>
+          <t>Dokuri</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sejal</t>
+          <t>Swadesh Reddy</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1208,7 +1212,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Late DR</t>
+          <t xml:space="preserve"> DR</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1216,19 +1220,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Murugesh</t>
+          <t>Shail</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aryan</t>
+          <t>Sejal</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1245,19 +1249,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Stockey</t>
+          <t>Murugesh</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Gabriella</t>
+          <t>Aryan</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1266,7 +1270,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Under Hours DR</t>
+          <t xml:space="preserve"> Late DR</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1274,19 +1278,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Poonia</t>
+          <t>Toutoungi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Avnish (A)</t>
+          <t>Jennah</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1303,28 +1307,28 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Alagarsamy</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Patrick (Pat) (SUP)</t>
+          <t>Gayathri</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Under Hours</t>
+          <t xml:space="preserve"> Late</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1332,19 +1336,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Deshpande</t>
+          <t>Poonia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Raksha Ravindra</t>
+          <t>Avnish (A)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1361,28 +1365,28 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Vangeepuram</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sushen</t>
+          <t>Patrick (Pat) (SUP)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Late DR</t>
+          <t xml:space="preserve"> Under Hours</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1390,23 +1394,23 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dijeng</t>
+          <t>Deshpande</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bodikana (SUP)</t>
+          <t>Raksha Ravindra</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1419,19 +1423,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Rehder</t>
+          <t>Lilleodden</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nathan</t>
+          <t>Christine</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1440,7 +1444,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Late DR</t>
+          <t xml:space="preserve"> Late</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1448,31 +1452,176 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Muhammadu Anees</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mohammadu Yoosuf</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Vangeepuram</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sushen</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late DR</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Dijeng</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Bodikana (SUP)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Gojuru</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Akash</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Late Under Hours DR</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Unnava</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Aditya</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C41" t="n">
         <v>5</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D41" t="n">
         <v>15</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t xml:space="preserve"> Late DR</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guchhait</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Subhajit (SUP)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Under Hours</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
